--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB7408-1CE5-4B90-ACEA-2CA1C1A2725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C747D2E-E0AF-4BB7-B9DD-BF0A337903F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Descrição</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>O sistema deve respeita as diretrizes de acessibilidade para o conteúdo da web 2.1.</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador entrar em contacto facilmente com a empresa através de um formulário para resolver as suas questões.</t>
+  </si>
+  <si>
+    <t>RF-002: Contactar</t>
   </si>
 </sst>
 </file>
@@ -351,6 +357,30 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -360,15 +390,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -376,21 +397,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,7 +716,7 @@
   <dimension ref="B1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,28 +745,28 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -773,31 +779,31 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -810,17 +816,17 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -839,27 +845,27 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -872,31 +878,31 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -909,17 +915,17 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -935,21 +941,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -959,30 +965,32 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -992,11 +1000,15 @@
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1017,18 +1029,22 @@
       <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="23" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="H11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="7"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1044,20 +1060,24 @@
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="7"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1072,12 +1092,16 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1097,12 +1121,16 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="14" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1382,12 +1410,12 @@
       <c r="Y26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
+  <mergeCells count="28">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H2:L2"/>
@@ -1395,16 +1423,22 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C747D2E-E0AF-4BB7-B9DD-BF0A337903F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C8C69-18F7-4EA9-BAE5-0CC5C36B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Descrição</t>
   </si>
@@ -60,9 +60,6 @@
   <si>
     <t>Urgente - SIM
 Importante -SIM</t>
-  </si>
-  <si>
-    <t>Qualquer utilizador</t>
   </si>
   <si>
     <t>N/A</t>
@@ -138,15 +135,9 @@
     <t>RNF-004: Desempenho</t>
   </si>
   <si>
-    <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação, sejá através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
-  </si>
-  <si>
     <t>RI-001: Tipografia</t>
   </si>
   <si>
-    <t>O tamanho da fonte não deve ser menor que 0.875rem/14px.</t>
-  </si>
-  <si>
     <t>RI-002:  Acessibilidade</t>
   </si>
   <si>
@@ -163,6 +154,56 @@
   </si>
   <si>
     <t>RF-002: Contactar</t>
+  </si>
+  <si>
+    <t>O tipo de letra deve ser Poppins e o tamanho da fonte não deve ser menor que 0.875rem/14px.</t>
+  </si>
+  <si>
+    <t>RNF-005: Compatibilidade</t>
+  </si>
+  <si>
+    <t>A aplicação deve ser completamente funcional sem muita discrepância de web browser para web browser.</t>
+  </si>
+  <si>
+    <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação e o SEO, sejá através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
+  </si>
+  <si>
+    <t>RF-003: Mudar linguagem</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador alterar entre português e inglês o conteúdo apresentado.</t>
+  </si>
+  <si>
+    <t>Urgente - NÃO
+Importante -SIM</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador através de um botão voltar para o topo da página.</t>
+  </si>
+  <si>
+    <t>Urgente - NÃO
+Importante -NÃO</t>
+  </si>
+  <si>
+    <t>Apenas deverá ficar visível apos serem movidos no eixo Y 300 pixeis.</t>
+  </si>
+  <si>
+    <t>Utilizador anónimo</t>
+  </si>
+  <si>
+    <t>RF-004: Voltar para o topo</t>
+  </si>
+  <si>
+    <t>RI-004:  Cor</t>
+  </si>
+  <si>
+    <t>O formato das imagens deve ser do tipo webp.</t>
+  </si>
+  <si>
+    <t>As cores devem estar em conformidade da basicamente, ou seja, branco(#ffffff) e azul(#0c5eac).</t>
+  </si>
+  <si>
+    <t>RI-005:  Formato de imagens</t>
   </si>
 </sst>
 </file>
@@ -357,46 +398,46 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E098CD-7BC0-45E9-82D0-8965FB48D57B}">
-  <dimension ref="B1:Y26"/>
+  <dimension ref="B1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,28 +786,28 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="H2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="N2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -779,31 +820,31 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="O3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -816,17 +857,17 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -845,27 +886,27 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="N5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -878,31 +919,31 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="C6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="I6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="O6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -915,17 +956,17 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -941,21 +982,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="N8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -965,32 +1006,32 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="I9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="O9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1003,12 +1044,12 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1032,25 +1073,27 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="H11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="N11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1063,27 +1106,31 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="I12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="N12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1096,12 +1143,12 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="C13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1125,23 +1172,27 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="N14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1150,23 +1201,31 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="H15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="N15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1175,12 +1234,14 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="16" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1200,23 +1261,22 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+    <row r="17" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="8"/>
@@ -1225,23 +1285,22 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="8"/>
@@ -1250,12 +1309,16 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1275,12 +1338,16 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1300,12 +1367,16 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1325,7 +1396,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1345,7 +1416,14 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1365,7 +1443,16 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1385,7 +1472,16 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1400,7 +1496,16 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -1409,36 +1514,76 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
+    <row r="27" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <mergeCells count="46">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="O9:R9"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="H11:L11"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C8C69-18F7-4EA9-BAE5-0CC5C36B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFD371-8B41-469D-9255-AB5275D9588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -398,37 +398,37 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E098CD-7BC0-45E9-82D0-8965FB48D57B}">
   <dimension ref="B1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,13 +786,13 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
@@ -801,13 +801,13 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -820,12 +820,12 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
@@ -839,12 +839,12 @@
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -857,12 +857,12 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="H4" s="5"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -886,12 +886,12 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
       <c r="H5" s="22" t="s">
         <v>12</v>
       </c>
@@ -900,13 +900,13 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -919,12 +919,12 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
@@ -938,12 +938,12 @@
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -956,12 +956,12 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -990,13 +990,13 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -1006,13 +1006,13 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1026,12 +1026,12 @@
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1044,12 +1044,12 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1073,12 +1073,12 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="H11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1087,13 +1087,13 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1106,12 +1106,12 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
@@ -1125,12 +1125,12 @@
       <c r="N12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1143,12 +1143,12 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1172,12 +1172,12 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="H14" s="22" t="s">
         <v>25</v>
       </c>
@@ -1186,13 +1186,13 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1220,12 +1220,12 @@
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1235,13 +1235,13 @@
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1265,12 +1265,12 @@
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1289,12 +1289,12 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1313,12 +1313,12 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1342,12 +1342,12 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1371,12 +1371,12 @@
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1417,13 +1417,13 @@
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1447,12 +1447,12 @@
       <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1476,12 +1476,12 @@
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1500,12 +1500,12 @@
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -1518,32 +1518,52 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="C7:F7"/>
@@ -1558,32 +1578,12 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFD371-8B41-469D-9255-AB5275D9588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D67761-B823-49E2-BE7E-ACF29E954A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Descrição</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>RI-005:  Formato de imagens</t>
+  </si>
+  <si>
+    <t>RF-005: Listagem dos serviços</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador visualizar a lista dos serviços prestados pela entidade.</t>
+  </si>
+  <si>
+    <t>RF-006: Listagem dos projetos</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador visualizar a os projetos desenvolvidos anteriormente pela entidade.</t>
   </si>
 </sst>
 </file>
@@ -425,20 +437,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E098CD-7BC0-45E9-82D0-8965FB48D57B}">
-  <dimension ref="B1:Y28"/>
+  <dimension ref="B1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,21 +805,21 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -829,22 +841,22 @@
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -864,10 +876,10 @@
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -892,21 +904,21 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -928,22 +940,22 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -963,10 +975,10 @@
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -982,21 +994,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -1016,22 +1028,22 @@
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1079,21 +1091,21 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1115,22 +1127,22 @@
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1178,21 +1190,21 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1210,22 +1222,22 @@
       <c r="H15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="7"/>
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1536,19 +1548,170 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
+    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <mergeCells count="58">
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="O9:R9"/>
@@ -1564,26 +1727,17 @@
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D67761-B823-49E2-BE7E-ACF29E954A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722D4DCE-46AF-4165-B4FF-98A7D24074B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
@@ -77,32 +77,6 @@
     <t>RNF-002: UI</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user interface</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve ser amigável, responsiva, apelativa, etc… para tal deve ser planeada na ferramenta Figma e tranposta através da framework Tailwind CSS para a aplicação.</t>
-    </r>
-  </si>
-  <si>
     <t>RNF-003: UX</t>
   </si>
   <si>
@@ -165,9 +139,6 @@
     <t>A aplicação deve ser completamente funcional sem muita discrepância de web browser para web browser.</t>
   </si>
   <si>
-    <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação e o SEO, sejá através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
-  </si>
-  <si>
     <t>RF-003: Mudar linguagem</t>
   </si>
   <si>
@@ -185,9 +156,6 @@
 Importante -NÃO</t>
   </si>
   <si>
-    <t>Apenas deverá ficar visível apos serem movidos no eixo Y 300 pixeis.</t>
-  </si>
-  <si>
     <t>Utilizador anónimo</t>
   </si>
   <si>
@@ -216,6 +184,38 @@
   </si>
   <si>
     <t>Esta funcionalidade permite ao utilizador visualizar a os projetos desenvolvidos anteriormente pela entidade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve ser amigável, responsiva, apelativa, etc… para tal deve ser planeada na ferramenta Figma e transposta através da framework Tailwind CSS para a aplicação.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apenas deverá ficar visível apos serem movidos no eixo Y 300 pixéis.</t>
+  </si>
+  <si>
+    <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação e o SEO, seja através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
   </si>
 </sst>
 </file>
@@ -410,6 +410,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -428,13 +437,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,14 +449,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,21 +768,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E098CD-7BC0-45E9-82D0-8965FB48D57B}">
   <dimension ref="B1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="18" width="10.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -798,28 +798,28 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="N2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -832,31 +832,31 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="O3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -869,17 +869,17 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -898,27 +898,27 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="H5" s="20" t="s">
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="H5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="N5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -931,31 +931,31 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="O6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -968,17 +968,17 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -994,21 +994,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="H8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="N8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -1018,32 +1018,32 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="O9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1056,12 +1056,12 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1085,27 +1085,27 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="N11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1118,31 +1118,31 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="O12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1151,16 +1151,16 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1180,31 +1180,31 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="N14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1213,7 +1213,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1222,22 +1222,22 @@
       <c r="H15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="7"/>
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="O15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1246,14 +1246,14 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+    <row r="16" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1273,16 +1273,16 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1297,16 +1297,16 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1321,16 +1321,16 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1350,16 +1350,16 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1379,16 +1379,16 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1408,7 +1408,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1428,14 +1428,14 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+    <row r="23" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1455,16 +1455,16 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1484,16 +1484,16 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1508,16 +1508,16 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -1526,192 +1526,171 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="O9:R9"/>
@@ -1727,17 +1706,38 @@
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722D4DCE-46AF-4165-B4FF-98A7D24074B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185F54C-A6C3-4066-BDF4-46E85A1CD7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>Descrição</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação e o SEO, seja através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
+  </si>
+  <si>
+    <t>RNF-006: Segurança</t>
+  </si>
+  <si>
+    <t>Todos os formulários devem estar acompanhados pelo método reCaptcha de modo a prevenir ataques automatizados.</t>
+  </si>
+  <si>
+    <t>RNF-007: Manutenibilidade</t>
+  </si>
+  <si>
+    <t>A aplicação deve conter uma arquitetura não muito diferente do padrão habitual, devendo ser possível uma fácil expansão, permitindo assim uma rápida evolução da aplicação para se adaptar a situações possíveis no futuro.</t>
   </si>
 </sst>
 </file>
@@ -410,6 +422,24 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -419,38 +449,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +781,7 @@
   <dimension ref="B1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,28 +810,28 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -832,31 +844,31 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -869,17 +881,17 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -898,27 +910,27 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="22" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -931,31 +943,31 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -968,17 +980,17 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -994,21 +1006,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -1018,32 +1030,32 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1056,12 +1068,12 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1085,27 +1097,27 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="22" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1118,31 +1130,31 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1155,12 +1167,12 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1184,27 +1196,27 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1222,22 +1234,22 @@
       <c r="H15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="7"/>
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1247,13 +1259,13 @@
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1277,17 +1289,19 @@
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1301,17 +1315,21 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="H18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1325,12 +1343,12 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1354,17 +1372,19 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="7"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -1383,17 +1403,21 @@
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="7"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -1429,13 +1453,13 @@
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1459,12 +1483,12 @@
       <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1488,12 +1512,12 @@
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1512,12 +1536,12 @@
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -1530,167 +1554,192 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <mergeCells count="62">
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="O9:R9"/>
@@ -1706,38 +1755,17 @@
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185F54C-A6C3-4066-BDF4-46E85A1CD7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2489A9DF-CE2C-4D49-B005-BFB7B04ED0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A5A072-F1EA-442E-B2D3-7554C672FC8C}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Os elementos assinalados como obrigatórios devem estar devidamente preenchidos e respeitando o formato do tipo de dados, bem como os restantes elementos opcionais.</t>
-  </si>
-  <si>
     <t>RNF-001: Linguagem de programação</t>
   </si>
   <si>
@@ -80,32 +77,6 @@
     <t>RNF-003: UX</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user experience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve ser estar bem estruturada e organizada de forma que o utilizador tenha uma boa experiência e não se sinta perdido ou confuso acerca do que necessita para tal sera utilizado o CMS Contentful.</t>
-    </r>
-  </si>
-  <si>
     <t>RNF-004: Desempenho</t>
   </si>
   <si>
@@ -124,9 +95,6 @@
     <t>O sistema deve respeita as diretrizes de acessibilidade para o conteúdo da web 2.1.</t>
   </si>
   <si>
-    <t>Esta funcionalidade permite ao utilizador entrar em contacto facilmente com a empresa através de um formulário para resolver as suas questões.</t>
-  </si>
-  <si>
     <t>RF-002: Contactar</t>
   </si>
   <si>
@@ -134,9 +102,6 @@
   </si>
   <si>
     <t>RNF-005: Compatibilidade</t>
-  </si>
-  <si>
-    <t>A aplicação deve ser completamente funcional sem muita discrepância de web browser para web browser.</t>
   </si>
   <si>
     <t>RF-003: Mudar linguagem</t>
@@ -165,59 +130,18 @@
     <t>RI-004:  Cor</t>
   </si>
   <si>
-    <t>O formato das imagens deve ser do tipo webp.</t>
-  </si>
-  <si>
-    <t>As cores devem estar em conformidade da basicamente, ou seja, branco(#ffffff) e azul(#0c5eac).</t>
-  </si>
-  <si>
     <t>RI-005:  Formato de imagens</t>
   </si>
   <si>
     <t>RF-005: Listagem dos serviços</t>
   </si>
   <si>
-    <t>Esta funcionalidade permite ao utilizador visualizar a lista dos serviços prestados pela entidade.</t>
-  </si>
-  <si>
     <t>RF-006: Listagem dos projetos</t>
   </si>
   <si>
-    <t>Esta funcionalidade permite ao utilizador visualizar a os projetos desenvolvidos anteriormente pela entidade.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user interface</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve ser amigável, responsiva, apelativa, etc… para tal deve ser planeada na ferramenta Figma e transposta através da framework Tailwind CSS para a aplicação.</t>
-    </r>
-  </si>
-  <si>
     <t>Apenas deverá ficar visível apos serem movidos no eixo Y 300 pixéis.</t>
   </si>
   <si>
-    <t>Devem ser tidos em conta formas de melhorar de a performance da aplicação e o SEO, seja através do uso de imagens com formato .webp e loading do tipo lazy, a bundles de .css, .js, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
-  </si>
-  <si>
     <t>RNF-006: Segurança</t>
   </si>
   <si>
@@ -228,13 +152,43 @@
   </si>
   <si>
     <t>A aplicação deve conter uma arquitetura não muito diferente do padrão habitual, devendo ser possível uma fácil expansão, permitindo assim uma rápida evolução da aplicação para se adaptar a situações possíveis no futuro.</t>
+  </si>
+  <si>
+    <t>Os elementos assinalados como obrigatórios devem estar devidamente preenchidos e respeitando o formato do tipo de dados.</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador entrar em contacto facilmente com a empresa através de um formulário para apresentar as suas questões.</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador visualizar a lista dos principais serviços prestados pela entidade.</t>
+  </si>
+  <si>
+    <t>Esta funcionalidade permite ao utilizador visualizar a os principais projetos desenvolvidos anteriormente pela entidade.</t>
+  </si>
+  <si>
+    <t>A UI (User Interface) deve ser amigável, responsiva, apelativa, etc… para tal deve ser planeada na ferramenta Figma e transposta através da framework Tailwind CSS para a aplicação.</t>
+  </si>
+  <si>
+    <t>A UX (User Experience) deve ser estar bem estruturada e organizada de forma que o utilizador tenha uma boa experiência e não se sinta perdido ou confuso acerca do que necessita para tal será utilizado o CMS Contentful.</t>
+  </si>
+  <si>
+    <t>Devem ser tidos em conta formas de melhorar a performance da aplicação e o SEO (Search Engine Optimization), seja através do uso de imagens com formato “.webp” e loading do tipo lazy, a bundles de “.css”, “.js”, purgados e minificados de forma a reduzir o payload de cada request, etc…</t>
+  </si>
+  <si>
+    <t>A aplicação deve ser completamente funcional sem muita discrepância entre os diferentes web browsers.</t>
+  </si>
+  <si>
+    <t>As cores devem estar em conformidade da Basicamente Digital, ou seja, branco(#ffffff) e azul(#0c5eac).</t>
+  </si>
+  <si>
+    <t>O formato das imagens deve ser do tipo “.webp”.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +208,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,6 +368,21 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -440,29 +401,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,7 +727,7 @@
   <dimension ref="B1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -810,28 +756,28 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="N2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8"/>
@@ -844,31 +790,31 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="7"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="O3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="8"/>
@@ -881,17 +827,17 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -910,27 +856,27 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="H5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="N5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="8"/>
@@ -943,31 +889,31 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="O6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8"/>
@@ -980,17 +926,17 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1006,21 +952,21 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="N8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
@@ -1030,32 +976,32 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="H9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="O9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="8"/>
@@ -1068,12 +1014,12 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1097,27 +1043,27 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="N11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
@@ -1130,31 +1076,31 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="O12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
@@ -1167,12 +1113,12 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1196,27 +1142,27 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="C14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="N14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
@@ -1234,22 +1180,22 @@
       <c r="H15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="7"/>
       <c r="N15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="O15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
@@ -1259,13 +1205,13 @@
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1289,19 +1235,19 @@
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1315,21 +1261,21 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="H18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1343,12 +1289,12 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1372,19 +1318,19 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="H20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="7"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -1403,21 +1349,21 @@
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="H21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="7"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -1453,13 +1399,13 @@
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1483,12 +1429,12 @@
       <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1512,12 +1458,12 @@
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1536,12 +1482,12 @@
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -1554,192 +1500,167 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+      <c r="C31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
+      <c r="C38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
+      <c r="C40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="O9:R9"/>
@@ -1755,17 +1676,42 @@
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
